--- a/AppTec/practice/TeamC/テスト実施/試験エビデンス/試験エビデンス11(0623).xlsx
+++ b/AppTec/practice/TeamC/テスト実施/試験エビデンス/試験エビデンス11(0623).xlsx
@@ -5,27 +5,27 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systemi\Desktop\TeamC\試験エビデンス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systsemi\Desktop\TEAMC\試験エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="試験内容(11-1)" sheetId="2" r:id="rId1"/>
-    <sheet name="試験内容(11-2)" sheetId="3" r:id="rId2"/>
-    <sheet name="試験内容(11-3)" sheetId="4" r:id="rId3"/>
-    <sheet name="試験内容(11-4)" sheetId="5" r:id="rId4"/>
-    <sheet name="試験内容(11-5)" sheetId="6" r:id="rId5"/>
-    <sheet name="試験内容(11-6) " sheetId="7" r:id="rId6"/>
+    <sheet name="試験内容(11-1db)" sheetId="3" r:id="rId2"/>
+    <sheet name="試験内容(11-2)" sheetId="4" r:id="rId3"/>
+    <sheet name="試験内容(11-2db)" sheetId="5" r:id="rId4"/>
+    <sheet name="試験内容(11-3)" sheetId="6" r:id="rId5"/>
+    <sheet name="試験内容(11-3db) " sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'試験内容(11-1)'!$A$1:$I$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'試験内容(11-2)'!$A$1:$I$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'試験内容(11-3)'!$A$1:$I$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'試験内容(11-4)'!$A$1:$I$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'試験内容(11-5)'!$A$1:$I$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'試験内容(11-6) '!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'試験内容(11-1db)'!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'試験内容(11-2)'!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'試験内容(11-2db)'!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'試験内容(11-3)'!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'試験内容(11-3db) '!$A$1:$I$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>コメントに一文字投稿後</t>
     <rPh sb="5" eb="8">
@@ -1464,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1794,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2124,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2784,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3114,8 +3114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3170,9 +3170,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="12"/>
-      <c r="I3" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="9"/>
